--- a/medicine/Enfance/Jean-Baptiste_Evette/Jean-Baptiste_Evette.xlsx
+++ b/medicine/Enfance/Jean-Baptiste_Evette/Jean-Baptiste_Evette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Evette, né à Vincennes en 1964, est un écrivain français.
 Auteur de plusieurs romans chez Gallimard et chez Plon ainsi que d'œuvres pour la jeunesse, il a fait des études de lettres classiques et modernes à Paris et à Lyon. Il a également écrit des spectacles pour le collectif de théâtre de rue des Grandes Personnes.
-Pour son premier roman Jordan Fantosme, il obtient le Prix René-Fallet 1998[1]
+Pour son premier roman Jordan Fantosme, il obtient le Prix René-Fallet 1998
 </t>
         </is>
       </c>
@@ -515,12 +527,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jeunesse
-Mademoiselle V. (Magnard, coll "les fantastiques" 1999, Magnard coll tipik", 2005')
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mademoiselle V. (Magnard, coll "les fantastiques" 1999, Magnard coll tipik", 2005')
 La Fureur d'Andarta (Magnard, 2002 et La Mirandole, 2008)
-À la poursuite de l'enfantôme (Gallimard jeunesse, coll Hors-Piste', 2008')
-Romans
-Jordan Fantosme (Gallimard, coll Folio, 1997) - prix René-Fallet 1998[1]
+À la poursuite de l'enfantôme (Gallimard jeunesse, coll Hors-Piste', 2008')</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Evette</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Evette</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jordan Fantosme (Gallimard, coll Folio, 1997) - prix René-Fallet 1998
 Rue-de-la-Femme-sans-Tête (Gallimard, coll blanche, 2002)
 Les Spadassins (Gallimard, coll blanche, 2005)
 Tuer Napoléon III (Plon, 2014)
